--- a/Test.xlsx
+++ b/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProyectosPython\Miscellaneous\CorreosMasivosOutlook\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProyectosPython\AutoEmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EFDAFA-4091-4193-96DB-A47EC17561E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F4C1A0-8F80-4B3F-885E-CCA000B8E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,24 +33,6 @@
     <t>Sra.</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>monk.aa135@hotmail.com</t>
-  </si>
-  <si>
-    <t>caca.aa135@gmail.com</t>
-  </si>
-  <si>
-    <t>mamuchi.aa135@gmail.com</t>
-  </si>
-  <si>
     <t>Archivo1.txt, Archivo3.txt</t>
   </si>
   <si>
@@ -58,6 +40,24 @@
   </si>
   <si>
     <t>Archivo3.txt,Archivo1.txt</t>
+  </si>
+  <si>
+    <t>correo1@hotmail.com</t>
+  </si>
+  <si>
+    <t>correo2@gmail.com</t>
+  </si>
+  <si>
+    <t>correo3@gmail.com</t>
+  </si>
+  <si>
+    <t>Nombre1</t>
+  </si>
+  <si>
+    <t>Nombre2</t>
+  </si>
+  <si>
+    <t>Nombre3</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,13 +408,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2">
         <v>111111111</v>
@@ -428,13 +428,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
         <v>222222222</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>333333333</v>
